--- a/grade_calculator.xlsx
+++ b/grade_calculator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Num. modules:</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Num. credits:</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>COMP201</t>
   </si>
   <si>
     <t>Weighting</t>
@@ -34,19 +34,31 @@
     <t>Weighted Grade</t>
   </si>
   <si>
+    <t>Coursework</t>
+  </si>
+  <si>
     <t>Exam</t>
   </si>
   <si>
-    <t>Coursework</t>
-  </si>
-  <si>
     <t>Average grade:</t>
   </si>
   <si>
-    <t>Weighted Total:</t>
-  </si>
-  <si>
-    <t>Module-Weighted total:</t>
+    <t>Overall grade:</t>
+  </si>
+  <si>
+    <t>Weighted total:</t>
+  </si>
+  <si>
+    <t>COMP207</t>
+  </si>
+  <si>
+    <t>Average grade for year:</t>
+  </si>
+  <si>
+    <t>Total grade for year:</t>
+  </si>
+  <si>
+    <t>Degree Classification:</t>
   </si>
 </sst>
 </file>
@@ -54,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -100,12 +112,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -115,8 +142,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -412,29 +439,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2">
+        <f>AVERAGE(B9,B17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUM(D10,D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -448,25 +491,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.8</v>
+      <c r="B5" s="2">
+        <v>0.4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <f>B5*C5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.1</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <f>IF(F3&gt;=70,"1st",IF(F3&gt;=60,"2:1",IF(F3&gt;=50,"2:2",IF(F3&gt;=40,"3rd","Fail"))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -474,12 +524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -487,28 +537,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <f>B8*C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <f>IF(COUNTBLANK(C5:C7)=3,"", AVERAGE(C5:C7))</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="3">
+        <f>IF(COUNTBLANK(C5:C8)=4,"", AVERAGE(C5:C8))</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(D5:D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3">
+        <f>SUM(D5:D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
-        <f>0.5*D8</f>
+      <c r="D10" s="3">
+        <f>0.5*D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <f>B13*C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <f>B14*C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <f>B15*C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <f>B16*C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <f>IF(COUNTBLANK(C13:C16)=4,"", AVERAGE(C13:C16))</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(D13:D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <f>0.5*D17</f>
         <v>0</v>
       </c>
     </row>

--- a/grade_calculator.xlsx
+++ b/grade_calculator.xlsx
@@ -507,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <f>IF(F3&gt;=70,"1st",IF(F3&gt;=60,"2:1",IF(F3&gt;=50,"2:2",IF(F3&gt;=40,"3rd","Fail"))))</f>
+        <f>IF(G3&gt;=0.7,"1st",IF(G3&gt;=0.6,"2:1",IF(G3&gt;=0.5,"2:2",IF(G3&gt;=0.4,"3rd","Fail"))))</f>
         <v>0</v>
       </c>
     </row>
